--- a/‏‏MulVAL Interaction Rules.xlsx
+++ b/‏‏MulVAL Interaction Rules.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="775">
   <si>
     <t>#</t>
   </si>
@@ -138,10 +138,6 @@
   setuidProgram(Host, Software, Perm).</t>
   </si>
   <si>
-    <t>Exploitation for Client Execution (DT)
-T1068 - Exploitation for Privilege Escalation (NB)</t>
-  </si>
-  <si>
     <t>Remote exploit of a server program (remote privilege escalation)</t>
   </si>
   <si>
@@ -150,11 +146,6 @@
   vulExists(Host, Program, remoteExploit, privilegeEscalation),
   networkService(Host, Program, Protocol, Port, User),
   netAccess(Attacker, _AttackSrc, Host, Protocol, Port).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploitation for Privilege Escalation (DT)
-T1190 - Exploit Public-Facing Application (NB)
-</t>
   </si>
   <si>
     <t>Local privilege escalation</t>
@@ -168,10 +159,6 @@
   execCode(Attacker, Host, _SomeUser).</t>
   </si>
   <si>
-    <t>Abuse Elevation Control Mechanism (DT)
-Exploitation for Privilege Escalation (DT)</t>
-  </si>
-  <si>
     <t>Remote exploit for a client program (exploit remote client)</t>
   </si>
   <si>
@@ -246,20 +233,12 @@
   accessFile(Prin, Client, Access, ClientPath)</t>
   </si>
   <si>
-    <t>Data from Local System (DT)
-Building Block (NB)</t>
-  </si>
-  <si>
     <t>principal Prin can access files on a NFS client if the files on the server are mounted at the client and he can access the files on the server side</t>
   </si>
   <si>
     <t>accessFile(Prin, Client, Access, ClientPath) :-
   nfsMounted(Client, ClientPath, Server, ServerPath, read),
   accessFile(Prin, Server, Access, ServerPath)</t>
-  </si>
-  <si>
-    <t>Data from Network Shared Drive (DT)
-Building Block (NB)</t>
   </si>
   <si>
     <t>NFS shell</t>
@@ -271,9 +250,6 @@
   nfsExportInfo(Server, Path, Access, Client)</t>
   </si>
   <si>
-    <t>Data from Network Shared Drive</t>
-  </si>
-  <si>
     <t>localFileProtection(Host, User, Access, Path)</t>
   </si>
   <si>
@@ -364,9 +340,6 @@
     <t>execCode(Attacker, Host, root) :-
   malicious(Attacker),
   accessFile(Attacker, Host, write, Path).</t>
-  </si>
-  <si>
-    <t>Exploitation for Client Execution (DT)</t>
   </si>
   <si>
     <t>execCode(Attacker, Host, User) :-
@@ -441,9 +414,6 @@
   accessFile(Prin, Server, Access, ClientPath).</t>
   </si>
   <si>
-    <t>Data from Network Shared Drive (DT)</t>
-  </si>
-  <si>
     <t>nfsMounted(Client, ClientPath, Server, ServerPath, Access)</t>
   </si>
   <si>
@@ -465,20 +435,12 @@
   malicious(Attacker).</t>
   </si>
   <si>
-    <t>Exploitation for Credential Access (DT)
-T1003- OS Credential Dumping (NB)
-T1558 - Steal or Forge Kerberos Tickets (NB)</t>
-  </si>
-  <si>
     <t>Incompetent user</t>
   </si>
   <si>
     <t>principalCompromised(Victim, Attacker) :-
   incompetent(Victim),
   malicious(Attacker).</t>
-  </si>
-  <si>
-    <t>Exploitation for Credential Access (DT)</t>
   </si>
   <si>
     <t>Once the credential of a principal is compromised, an attacker can compromise accounts of the principal on any machine the attacker has access to.</t>
@@ -490,10 +452,6 @@
   canAccessHost(Attacker, Host).</t>
   </si>
   <si>
-    <t>Exploitation for Credential Access (DT)
-TA1078 - Valid Account (NB)</t>
-  </si>
-  <si>
     <t>canAccessHost(Attacker, Host)</t>
   </si>
   <si>
@@ -605,9 +563,6 @@
     <t>spoofLinkHost5(Principal, ImpersonatedHost, FooledHost, AttackerHost, trafficTheft):-
   vulLinkProtocol6(ImpersonatedHost, FooledHost, _vulID, Prot,adjacent, impersonateSrc),
   l2Access6(Principal, AttackerHost, ImpersonatedHost, Prot, Zone, ipSubnet).</t>
-  </si>
-  <si>
-    <t>Man-in-the-Middle</t>
   </si>
   <si>
     <t>The impersonated and fooled hosts reside in different subnets.</t>
@@ -689,9 +644,6 @@
   localService(Host,Prog,User),
   vulHost(Host,VulID,Prog,localExploit,dos),
   malicious(Principal).</t>
-  </si>
-  <si>
-    <t>Endpoint Denial of Service</t>
   </si>
   <si>
     <t>Vulnerability is exploited via network. Network-based DoS attacks. The attacker Principal exploits his/her access to a network service running on DstHost (represented by the netAccess, aclH, and networkService), which contains a vulnerability that enables DoS upon successful exploitation (represented by the vulHost).</t>
@@ -705,9 +657,6 @@
   netAccess5(Principal, SrcHost, DstHost,Prot, Port).</t>
   </si>
   <si>
-    <t>Network Denial of Service</t>
-  </si>
-  <si>
     <t>Attacks on Bus Communication; Malicious access to the bus.
 Attacker Principal (represented by the malicious predicate) can utilize his/her local access (i.e., login or ability to execute code) to a device connected to a bus in order to deny service to any other device connected to that bus (represented by the l2Access predicate).</t>
   </si>
@@ -814,10 +763,6 @@
   relay2(AP, Flowname),
   isAP5(AP, WirelessRange, DstZone, WirelessProt, secured),
   vulLinkProtocol5(WirelessRange, WeakEncryption, WirelessProt, remoteExploit, keyExtraction).</t>
-  </si>
-  <si>
-    <t>Password Policy Discovery
-Network Sniffing (NB)</t>
   </si>
   <si>
     <t>Utilizing wireless protocol with weak encryption to extract the encryption key of a device</t>
@@ -844,9 +789,6 @@
   isAP5(AP, WirelessRange, DstZone, Protocol, secured),
   vulLinkProtocol5(WirelessRange, VulID1, Protocol, adjacent,keyReinstallation),
   vulHost5(Host, VulID2, wpaSupplicant, localExploit, keyExtraction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Password Policy Discovery</t>
   </si>
   <si>
     <t>accessDataFlow3(Principal, Flowname, view)</t>
@@ -866,9 +808,6 @@
   localAccess(Principal, AttackerHost, admin).</t>
   </si>
   <si>
-    <t>Network Sniffing</t>
-  </si>
-  <si>
     <t>Viewing traffic by capturing wireless signals via relay - not necessarily plaintext</t>
   </si>
   <si>
@@ -898,9 +837,6 @@
   located3(SideHost, WirelessRange, physical),
   localAccess3(Principal, SideHost, admin),
   dataFlow4(SrcHost, DstHost, Flowname, Direction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Sniffing </t>
   </si>
   <si>
     <t>isAuthenticated3(Principal, AttackerHost, AP)</t>
@@ -950,9 +886,6 @@
   flowBind3(Flowname, BluetoothProt, _).</t>
   </si>
   <si>
-    <t>Password Policy Discovery</t>
-  </si>
-  <si>
     <t>Principal got the PIN code of the Bluetooth communication</t>
   </si>
   <si>
@@ -1026,9 +959,6 @@
   vulHost5(DstHost, _vulID, Prog, remoteExploit, completeDataTheft),
   malicious1(Principal),
   netAccess5(Principal, SrcHost, DstHost, Prot, Port).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data from Network Shared Drive </t>
   </si>
   <si>
     <t>l2Access6(Principal, SrcHost, DstHost, Prot, Zone, Type)</t>
@@ -1214,9 +1144,6 @@
   l2Access6(Principal, SrcHost, DstHost, Prot, Zone, Type).</t>
   </si>
   <si>
-    <t>Exploitation for Privilege Escalation</t>
-  </si>
-  <si>
     <t>located3(SrcHost, DstZone, Type)</t>
   </si>
   <si>
@@ -1367,10 +1294,6 @@
   netAccess(Host, Protocol, Port).</t>
   </si>
   <si>
-    <t>Exploitation for Privilege Escalation 
-External Remote Services (NB)</t>
-  </si>
-  <si>
     <t>accessMaliciousInput(Host, Victim, Software)</t>
   </si>
   <si>
@@ -1381,10 +1304,6 @@
   attackerLocated(MaliciousMachine).</t>
   </si>
   <si>
-    <t>Building Block
-Drive-by Compromise (NB)</t>
-  </si>
-  <si>
     <t>gateway(_host)</t>
   </si>
   <si>
@@ -1411,10 +1330,6 @@
   advances(H1, H2),
   netAccess(H1, _protocol, _port),
   hacl(H1, H2, _protocol, _port).</t>
-  </si>
-  <si>
-    <t>Building Block
-Remote Service (NB)</t>
   </si>
   <si>
     <t>principalCompromised(Victim)
@@ -1441,12 +1356,6 @@
   networkServiceInfo(H, ftpd, Protocol, Port, _).</t>
   </si>
   <si>
-    <t>Man-in-the-Middle 
-Network Sniffing (NB)
-Steal Application Access Token (NB)
-Steal or Forge Kerberos Tickets (NB)</t>
-  </si>
-  <si>
     <t>Route Hijacking</t>
   </si>
   <si>
@@ -1469,11 +1378,6 @@
   flowExists(H, RemoteHost, Protocol, Port, User).</t>
   </si>
   <si>
-    <t>Man-in-the-Middle 
-Steal Application Access Token (NB)
-Steal or Forge Kerberos Tickets (NB)</t>
-  </si>
-  <si>
     <t>Availability of Mobile Devices</t>
   </si>
   <si>
@@ -1493,10 +1397,6 @@
   maliciousInteraction(H, _, App).</t>
   </si>
   <si>
-    <t>Exploitation for Privilege Escalation 
-Command and Scripting Interpreter</t>
-  </si>
-  <si>
     <t>Host-VM Dependency</t>
   </si>
   <si>
@@ -1570,9 +1470,6 @@
     <t>execCode(Vm_id, Perm) :-
   VulEixsts(Vm_id, stealthyBridge_id, _, _, privEscalation),
   netAccess(H, _Protocol, _Port).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploitation for Privilege Escalation </t>
   </si>
   <si>
     <t>VM Co-residency Problem</t>
@@ -1593,11 +1490,6 @@
   ResideOn(Vm_2, Host).</t>
   </si>
   <si>
-    <t>Exploitation of Remote Services?
-Remote Services? (DT)
-Process Injection? (NB)</t>
-  </si>
-  <si>
     <t>execCode(Vm_2,_user)</t>
   </si>
   <si>
@@ -1606,9 +1498,6 @@
   <si>
     <t>execCode(Vm_2,_user) :-
   stealthyBridgeExists(Vm_1, Vm_2, Host, stealthyBridge_id).</t>
-  </si>
-  <si>
-    <t>Exploitation for Privilege Escalation (DT)</t>
   </si>
   <si>
     <t>canAccessHost(Vm_2)</t>
@@ -1655,9 +1544,6 @@
   vulExists(Host, _, Software, _, readcode).</t>
   </si>
   <si>
-    <t xml:space="preserve">Exfiltration Over Alternative Protocol </t>
-  </si>
-  <si>
     <t>Leaking file information due to a vulnerability</t>
   </si>
   <si>
@@ -1666,20 +1552,12 @@
   vulExists(Host, _, Software, _, readfile).</t>
   </si>
   <si>
-    <t>Exfiltration Over Alternative Protocol 
-OS Credential Dumping (NB)</t>
-  </si>
-  <si>
     <t>Leaking data information due to a vulnerability</t>
   </si>
   <si>
     <t>leakInfo(Host, data) :-
   execCode(Host, _Perm),
   vulExists(Host, _, Software, _, readdata).</t>
-  </si>
-  <si>
-    <t>Exfiltration Over Alternative Protocol 
-Steal or Forge Kerberos Tickets (NB)</t>
   </si>
   <si>
     <t>tamperInfo(Host, Res)</t>
@@ -1694,9 +1572,6 @@
   modifyInfoAct(Act, Res).</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Manipulation </t>
-  </si>
-  <si>
     <t>execCode(Host, root)</t>
   </si>
   <si>
@@ -1724,18 +1599,12 @@
   vulExists(Host, _, Software, _, writecode).</t>
   </si>
   <si>
-    <t>Data Manipulation</t>
-  </si>
-  <si>
     <t>Executing an arbitrary code</t>
   </si>
   <si>
     <t>execArbitraryCode(Host, _Perm) :-
   execCode(Host, _Perm),
   vulExists(Host, _, Software, _, execArbitCode).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploitation for Client Execution </t>
   </si>
   <si>
     <t>systemDown(Host)</t>
@@ -1758,9 +1627,6 @@
   networkServiceInfo(Host, Software, Protocol, Port, Perm),
   netAccess(Host, Protocol, Port),
   misuseAction(Overuse).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Denial of Service </t>
   </si>
   <si>
     <t>3D Printers</t>
@@ -1906,9 +1772,6 @@
   canAccessHost(Host, Victim).</t>
   </si>
   <si>
-    <t xml:space="preserve">Valid Accounts </t>
-  </si>
-  <si>
     <t>Remote exploit for a client program</t>
   </si>
   <si>
@@ -1918,11 +1781,6 @@
   accessMaliciousInput(Host, Victim, Software).</t>
   </si>
   <si>
-    <t>Exploitation for Client Execution
-User Execution (NB)
-Drive-by Compromise (NB)</t>
-  </si>
-  <si>
     <t>execCode(Src, Host, Perm)</t>
   </si>
   <si>
@@ -1935,10 +1793,6 @@
   netAccess(Src ,Host, Protocol, Port).</t>
   </si>
   <si>
-    <t>Valid Accounts
-Exploit Public-Facing Application (NB)</t>
-  </si>
-  <si>
     <t>Remote exploit of host</t>
   </si>
   <si>
@@ -1946,11 +1800,6 @@
   vulExists(Host, _, Software, remoteExploit, privEscalation),
   installed(Host, Software),
   netAccess(Src, Host, _, _).</t>
-  </si>
-  <si>
-    <t>Valid Accounts (DT)
-User Execution (NB)
-Exploitation for Client Execution (NB)</t>
   </si>
   <si>
     <t>netAccess(Host, Tgt, Protocol, Port)</t>
@@ -2083,9 +1932,6 @@
   canAccessFile(Host, Usr, Path).</t>
   </si>
   <si>
-    <t xml:space="preserve">Data from Local System </t>
-  </si>
-  <si>
     <t>Access to files going through compromised host</t>
   </si>
   <si>
@@ -2102,21 +1948,9 @@
   execCode(Victim, Host, root).</t>
   </si>
   <si>
-    <t>Credentials from Password Stores 
-OS Credential Dumping (NB)
-Steal or Forge Kerberos Tickets (NB)
-Network Sniffing (NB)</t>
-  </si>
-  <si>
     <t>principalCompromised(Victim) :-
   hasAccount(Victim, Host, User),
   execCode(Victim, Host, root).</t>
-  </si>
-  <si>
-    <t>Credentials from Password Stores (DT)
-OS Credential Dumping (NB)
-Steal or Forge Kerberos Tickets (NB)
-Network Sniffing (NB)</t>
   </si>
   <si>
     <t>vulExists(Host, ID, Sw, Range, Consequence)</t>
@@ -2200,9 +2034,6 @@
   listenForFiles(RXhost, RxSoftware).</t>
   </si>
   <si>
-    <t xml:space="preserve">Man-in-the-Middle </t>
-  </si>
-  <si>
     <t>manInTheMiddle(Host, Tx, Rx)</t>
   </si>
   <si>
@@ -2301,9 +2132,6 @@
   execCode(Src, Tgt,_).</t>
   </si>
   <si>
-    <t xml:space="preserve">Exfiltration Over Other Network Medium </t>
-  </si>
-  <si>
     <t>Susceptible to data exfiltration -- execute code</t>
   </si>
   <si>
@@ -2412,10 +2240,6 @@
   localService(Host, Software, Perm),
   usbMounted(Host, USB_Drive),
   malwareLocated(USB_Drive).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File and Directory Discovery (DT)
-Exfiltration Over Physical Medium </t>
   </si>
   <si>
     <t>Cloud Computing</t>
@@ -2879,10 +2703,6 @@
   accessFile(P, Client, Access, ClntPath).</t>
   </si>
   <si>
-    <t>Data from Network Shared Drive (DT)
-Derived Environment Rule (NB)</t>
-  </si>
-  <si>
     <t>access(P, Access, Data)</t>
   </si>
   <si>
@@ -3110,9 +2930,6 @@
   canLeakDoc(Comp).</t>
   </si>
   <si>
-    <t xml:space="preserve">Disk Wipe </t>
-  </si>
-  <si>
     <t>Ext01 (0, 60) - Extending Attack Graphs to Represent Cyber-Attacks in Communication Protocols and Modern IT Networks</t>
   </si>
   <si>
@@ -3167,10 +2984,190 @@
     <t>Ext37 (0, 8) - Towards Secure Architecture-based Adaptations</t>
   </si>
   <si>
-    <t>MulVAL Base (34 Env. Rules, 27 Interaction Rules)</t>
-  </si>
-  <si>
     <t>MITRE ATT&amp;CK Enterprise Technique</t>
+  </si>
+  <si>
+    <t>T1203 - Exploitation for Client Execution (DT)
+T1068 - Exploitation for Privilege Escalation (NB)</t>
+  </si>
+  <si>
+    <t>T1203 - Exploitation for Client Execution (DT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1203 - Exploitation for Client Execution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1068 - Exploitation for Privilege Escalation (DT)
+T1190 - Exploit Public-Facing Application (NB)
+</t>
+  </si>
+  <si>
+    <t>T1068 - Exploitation for Privilege Escalation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1068 - Exploitation for Privilege Escalation </t>
+  </si>
+  <si>
+    <t>T1068 - Exploitation for Privilege Escalation (DT)</t>
+  </si>
+  <si>
+    <t>T1548 - Abuse Elevation Control Mechanism (DT)
+T1068 - Exploitation for Privilege Escalation (DT)</t>
+  </si>
+  <si>
+    <t>T1005 - Data from Local System (DT)
+Building Block (NB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1005 - Data from Local System </t>
+  </si>
+  <si>
+    <t>T1039 - Data from Network Shared Drive (DT)
+Building Block (NB)</t>
+  </si>
+  <si>
+    <t>T1039 - Data from Network Shared Drive</t>
+  </si>
+  <si>
+    <t>T1039 - Data from Network Shared Drive (DT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1039 - Data from Network Shared Drive </t>
+  </si>
+  <si>
+    <t>T1039 - Data from Network Shared Drive (DT)
+Derived Environment Rule (NB)</t>
+  </si>
+  <si>
+    <t>MulVAL Base (35 Env. Rules, 26 Interaction Rules)</t>
+  </si>
+  <si>
+    <t>T1212 - Exploitation for Credential Access (DT)
+T1003- OS Credential Dumping (NB)
+T1558 - Steal or Forge Kerberos Tickets (NB)</t>
+  </si>
+  <si>
+    <t>T1212 - Exploitation for Credential Access (DT)</t>
+  </si>
+  <si>
+    <t>T1212 - Exploitation for Credential Access (DT)
+T1078 - Valid Account (NB)</t>
+  </si>
+  <si>
+    <t>T1557 - Man-in-the-Middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1557 - Man-in-the-Middle </t>
+  </si>
+  <si>
+    <t>T1498 - Network Denial of Service</t>
+  </si>
+  <si>
+    <t>T1499 - Endpoint Denial of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1449 - Network Denial of Service </t>
+  </si>
+  <si>
+    <t>T1201 -  Password Policy Discovery</t>
+  </si>
+  <si>
+    <t>T1201 - Password Policy Discovery</t>
+  </si>
+  <si>
+    <t>T1201 - Password Policy Discovery
+T1040 - Network Sniffing (NB)</t>
+  </si>
+  <si>
+    <t>T1040 - Network Sniffing</t>
+  </si>
+  <si>
+    <t>T1068 - Exploitation for Privilege Escalation 
+T1133 - External Remote Services (NB)</t>
+  </si>
+  <si>
+    <t>Building Block
+T1189 - Drive-by Compromise (NB)</t>
+  </si>
+  <si>
+    <t>Building Block
+T1021 - Remote Services (NB)</t>
+  </si>
+  <si>
+    <t>T1557 - Man-in-the-Middle 
+T1040 - Network Sniffing (NB)
+T1528 - Steal Application Access Token (NB)
+T1558 - Steal or Forge Kerberos Tickets (NB)</t>
+  </si>
+  <si>
+    <t>T1557 - Man-in-the-Middle 
+T1528 - Steal Application Access Token (NB)
+T1558 - Steal or Forge Kerberos Tickets (NB)</t>
+  </si>
+  <si>
+    <t>T1068 - Exploitation for Privilege Escalation 
+T1059 - Command and Scripting Interpreter</t>
+  </si>
+  <si>
+    <t>T1210 - Exploitation of Remote Services?
+T1021 - Remote Services? (DT)
+T1055 - Process Injection? (NB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1048 - Exfiltration Over Alternative Protocol </t>
+  </si>
+  <si>
+    <t>T1048 - Exfiltration Over Alternative Protocol 
+T1558 - Steal or Forge Kerberos Tickets (NB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1565 - Data Manipulation </t>
+  </si>
+  <si>
+    <t>T1565 - Data Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1078 - Valid Accounts </t>
+  </si>
+  <si>
+    <t>T1203 - Exploitation for Client Execution
+T1204 - User Execution (NB)
+T1189 - Drive-by Compromise (NB)</t>
+  </si>
+  <si>
+    <t>T1078 - Valid Accounts
+T1190 - Exploit Public-Facing Application (NB)</t>
+  </si>
+  <si>
+    <t>T1078 - Valid Accounts (DT)
+T1204 - User Execution (NB)
+T1203 - Exploitation for Client Execution (NB)</t>
+  </si>
+  <si>
+    <t>T1555 - Credentials from Password Stores 
+T1003 - OS Credential Dumping (NB)
+T1558 - Steal or Forge Kerberos Tickets (NB)
+T1040 - Network Sniffing (NB)</t>
+  </si>
+  <si>
+    <t>T1555 - Credentials from Password Stores (DT)
+T1003 - OS Credential Dumping (NB)
+T1558 - Steal or Forge Kerberos Tickets (NB)
+T1040 - Network Sniffing (NB)</t>
+  </si>
+  <si>
+    <t>T1048 - Exfiltration Over Alternative Protocol 
+T1003 - OS Credential Dumping (NB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1011 - Exfiltration Over Other Network Medium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1083 - File and Directory Discovery (DT)
+T1052 - Exfiltration Over Physical Medium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1561 - Disk Wipe </t>
   </si>
 </sst>
 </file>
@@ -3523,7 +3520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3534,7 +3531,7 @@
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="38.625" customWidth="1"/>
     <col min="6" max="6" width="55.125" customWidth="1"/>
-    <col min="7" max="7" width="37.125" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
     <col min="8" max="25" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3558,12 +3555,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>775</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
-        <v>774</v>
+        <v>741</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3756,7 +3753,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>34</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75">
@@ -3767,13 +3764,13 @@
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>37</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="90">
@@ -3784,13 +3781,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>40</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="90">
@@ -3801,13 +3798,13 @@
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -3816,13 +3813,13 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
@@ -3835,13 +3832,13 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
@@ -3854,13 +3851,13 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
@@ -3873,13 +3870,13 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
@@ -3892,13 +3889,13 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
@@ -3910,22 +3907,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45">
@@ -3936,13 +3933,13 @@
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>61</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60">
@@ -3953,13 +3950,13 @@
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>64</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="60">
@@ -3970,13 +3967,13 @@
       <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>67</v>
+        <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45">
@@ -3985,19 +3982,19 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>61</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60">
@@ -4009,10 +4006,10 @@
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>61</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
@@ -4024,10 +4021,10 @@
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>61</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4036,13 +4033,13 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
@@ -4055,16 +4052,16 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>12</v>
@@ -4079,7 +4076,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>12</v>
@@ -4094,7 +4091,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>12</v>
@@ -4106,16 +4103,16 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>12</v>
@@ -4130,7 +4127,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>12</v>
@@ -4145,7 +4142,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>12</v>
@@ -4157,16 +4154,16 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>12</v>
@@ -4181,7 +4178,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>12</v>
@@ -4196,7 +4193,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>12</v>
@@ -4207,7 +4204,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>26</v>
@@ -4216,13 +4213,13 @@
         <v>9</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>93</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="75">
@@ -4234,10 +4231,10 @@
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>93</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="90">
@@ -4249,10 +4246,10 @@
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>93</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="90">
@@ -4260,20 +4257,20 @@
         <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>67</v>
+        <v>737</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="105">
@@ -4285,10 +4282,10 @@
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>67</v>
+        <v>737</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45">
@@ -4297,13 +4294,13 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
@@ -4316,16 +4313,16 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>18</v>
@@ -4340,15 +4337,15 @@
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45">
-      <c r="A46" s="3">
-        <v>18</v>
+      <c r="A46" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -4357,7 +4354,7 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>12</v>
@@ -4369,13 +4366,13 @@
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
@@ -4388,19 +4385,19 @@
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>110</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45">
@@ -4409,13 +4406,13 @@
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
@@ -4427,22 +4424,22 @@
         <v>20</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>117</v>
+        <v>742</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45">
@@ -4453,13 +4450,13 @@
       <c r="C51" s="4"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>120</v>
+        <v>743</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60">
@@ -4474,13 +4471,13 @@
         <v>9</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>123</v>
+        <v>744</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="90">
@@ -4489,19 +4486,19 @@
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45">
@@ -4512,13 +4509,13 @@
       <c r="C54" s="4"/>
       <c r="D54" s="3"/>
       <c r="E54" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30">
@@ -4527,19 +4524,19 @@
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30">
@@ -4547,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
@@ -4568,22 +4565,22 @@
         <v>26</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45">
@@ -4595,10 +4592,10 @@
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="75">
@@ -4606,16 +4603,16 @@
         <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
@@ -4627,16 +4624,16 @@
         <v>6</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
@@ -4649,13 +4646,13 @@
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
@@ -4667,16 +4664,16 @@
         <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
@@ -4689,13 +4686,13 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
@@ -4704,7 +4701,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="10" t="s">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4718,22 +4715,22 @@
         <v>28</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="120">
@@ -4744,13 +4741,13 @@
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
       <c r="E66" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="195">
@@ -4761,13 +4758,13 @@
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
       <c r="E67" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="105">
@@ -4778,13 +4775,13 @@
       <c r="C68" s="4"/>
       <c r="D68" s="3"/>
       <c r="E68" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="150">
@@ -4793,19 +4790,19 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="150">
@@ -4816,13 +4813,13 @@
       <c r="C70" s="4"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="90">
@@ -4833,13 +4830,13 @@
       <c r="C71" s="4"/>
       <c r="D71" s="3"/>
       <c r="E71" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="90">
@@ -4847,22 +4844,22 @@
         <v>35</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>176</v>
+        <v>748</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="120">
@@ -4873,13 +4870,13 @@
       <c r="C73" s="4"/>
       <c r="D73" s="3"/>
       <c r="E73" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>179</v>
+        <v>747</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="120">
@@ -4890,13 +4887,13 @@
       <c r="C74" s="4"/>
       <c r="D74" s="3"/>
       <c r="E74" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>176</v>
+        <v>748</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="75">
@@ -4904,22 +4901,22 @@
         <v>38</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="45">
@@ -4928,17 +4925,17 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="60">
@@ -4949,13 +4946,13 @@
       <c r="C77" s="4"/>
       <c r="D77" s="3"/>
       <c r="E77" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="30">
@@ -4966,13 +4963,13 @@
       <c r="C78" s="4"/>
       <c r="D78" s="3"/>
       <c r="E78" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="30">
@@ -4983,13 +4980,13 @@
       <c r="C79" s="4"/>
       <c r="D79" s="3"/>
       <c r="E79" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="90">
@@ -5000,13 +4997,13 @@
       <c r="C80" s="4"/>
       <c r="D80" s="3"/>
       <c r="E80" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="75">
@@ -5015,19 +5012,19 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="30">
@@ -5036,17 +5033,17 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="60">
@@ -5057,13 +5054,13 @@
       <c r="C83" s="4"/>
       <c r="D83" s="3"/>
       <c r="E83" s="4" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="105">
@@ -5071,22 +5068,22 @@
         <v>47</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>207</v>
+        <v>752</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="120">
@@ -5097,13 +5094,13 @@
       <c r="C85" s="4"/>
       <c r="D85" s="3"/>
       <c r="E85" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>207</v>
+        <v>752</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="105">
@@ -5112,19 +5109,19 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>213</v>
+        <v>750</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="150">
@@ -5133,19 +5130,19 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>217</v>
+        <v>753</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="90">
@@ -5156,13 +5153,13 @@
       <c r="C88" s="4"/>
       <c r="D88" s="3"/>
       <c r="E88" s="4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>217</v>
+        <v>753</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="90">
@@ -5173,13 +5170,13 @@
       <c r="C89" s="4"/>
       <c r="D89" s="3"/>
       <c r="E89" s="4" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>217</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="75">
@@ -5190,13 +5187,13 @@
       <c r="C90" s="4"/>
       <c r="D90" s="3"/>
       <c r="E90" s="4" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>224</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="75">
@@ -5205,19 +5202,19 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="150">
@@ -5226,19 +5223,19 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>217</v>
+        <v>753</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="120">
@@ -5247,19 +5244,19 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>235</v>
+        <v>751</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30">
@@ -5270,13 +5267,13 @@
       <c r="C94" s="4"/>
       <c r="D94" s="3"/>
       <c r="E94" s="4" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>235</v>
+        <v>751</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="90">
@@ -5285,19 +5282,19 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="4" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>217</v>
+        <v>753</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="30">
@@ -5305,20 +5302,20 @@
         <v>59</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="30">
@@ -5329,13 +5326,13 @@
       <c r="C97" s="4"/>
       <c r="D97" s="3"/>
       <c r="E97" s="4" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="90">
@@ -5346,13 +5343,13 @@
       <c r="C98" s="4"/>
       <c r="D98" s="3"/>
       <c r="E98" s="4" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="60">
@@ -5361,19 +5358,19 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="4" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="120">
@@ -5382,19 +5379,19 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>254</v>
+        <v>739</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="45">
@@ -5403,19 +5400,19 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="4" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="60">
@@ -5424,19 +5421,19 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="4" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="60">
@@ -5447,13 +5444,13 @@
       <c r="C103" s="4"/>
       <c r="D103" s="3"/>
       <c r="E103" s="4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="90">
@@ -5464,13 +5461,13 @@
       <c r="C104" s="4"/>
       <c r="D104" s="3"/>
       <c r="E104" s="4" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="135">
@@ -5481,13 +5478,13 @@
       <c r="C105" s="4"/>
       <c r="D105" s="3"/>
       <c r="E105" s="4" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="60">
@@ -5498,13 +5495,13 @@
       <c r="C106" s="4"/>
       <c r="D106" s="3"/>
       <c r="E106" s="4" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="60">
@@ -5515,13 +5512,13 @@
       <c r="C107" s="4"/>
       <c r="D107" s="3"/>
       <c r="E107" s="4" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="45">
@@ -5530,19 +5527,19 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="4" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="75">
@@ -5551,19 +5548,19 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="4" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="60">
@@ -5574,13 +5571,13 @@
       <c r="C110" s="4"/>
       <c r="D110" s="3"/>
       <c r="E110" s="4" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="60">
@@ -5591,13 +5588,13 @@
       <c r="C111" s="4"/>
       <c r="D111" s="3"/>
       <c r="E111" s="4" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="60">
@@ -5606,19 +5603,19 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="4" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="45">
@@ -5629,13 +5626,13 @@
       <c r="C113" s="4"/>
       <c r="D113" s="3"/>
       <c r="E113" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="45">
@@ -5646,13 +5643,13 @@
       <c r="C114" s="4"/>
       <c r="D114" s="3"/>
       <c r="E114" s="4" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="45">
@@ -5663,13 +5660,13 @@
       <c r="C115" s="4"/>
       <c r="D115" s="3"/>
       <c r="E115" s="4" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="30">
@@ -5678,19 +5675,19 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="75">
@@ -5699,19 +5696,19 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="4" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="60">
@@ -5722,13 +5719,13 @@
       <c r="C118" s="4"/>
       <c r="D118" s="3"/>
       <c r="E118" s="4" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>299</v>
+        <v>730</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="75">
@@ -5737,19 +5734,19 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="4" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="30">
@@ -5758,19 +5755,19 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="30">
@@ -5781,13 +5778,13 @@
       <c r="C121" s="4"/>
       <c r="D121" s="3"/>
       <c r="E121" s="4" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30">
@@ -5796,19 +5793,19 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="4" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30">
@@ -5819,13 +5816,13 @@
       <c r="C123" s="4"/>
       <c r="D123" s="3"/>
       <c r="E123" s="4" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30">
@@ -5836,18 +5833,18 @@
       <c r="C124" s="4"/>
       <c r="D124" s="3"/>
       <c r="E124" s="4" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="10" t="s">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -5862,19 +5859,19 @@
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="4" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="75">
@@ -5883,19 +5880,19 @@
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="4" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="75">
@@ -5907,10 +5904,10 @@
       <c r="D128" s="3"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="75">
@@ -5919,19 +5916,19 @@
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="4" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="30">
@@ -5940,13 +5937,13 @@
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="4" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="4" t="s">
@@ -5959,19 +5956,19 @@
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="4" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>61</v>
+        <v>734</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="75">
@@ -5980,24 +5977,24 @@
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="4" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="10" t="s">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -6012,19 +6009,19 @@
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="4" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>338</v>
+        <v>754</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="75">
@@ -6033,22 +6030,22 @@
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="4" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>341</v>
+        <v>755</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="10" t="s">
-        <v>759</v>
+        <v>710</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -6063,13 +6060,13 @@
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="4" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4" t="s">
@@ -6082,13 +6079,13 @@
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="4" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="4" t="s">
@@ -6100,22 +6097,22 @@
         <v>96</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>350</v>
+        <v>756</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="255">
@@ -6124,19 +6121,19 @@
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="4" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>354</v>
+        <v>757</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="180">
@@ -6144,27 +6141,27 @@
         <v>98</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>359</v>
+        <v>758</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="10" t="s">
-        <v>760</v>
+        <v>711</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -6178,27 +6175,27 @@
         <v>99</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>364</v>
+        <v>759</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="10" t="s">
-        <v>761</v>
+        <v>712</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -6212,22 +6209,22 @@
         <v>100</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="45">
@@ -6235,25 +6232,25 @@
         <v>101</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="10" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -6267,10 +6264,10 @@
         <v>6</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>16</v>
@@ -6287,7 +6284,7 @@
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="4" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>16</v>
@@ -6304,16 +6301,16 @@
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="4" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>12</v>
@@ -6324,10 +6321,10 @@
         <v>6</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>16</v>
@@ -6344,51 +6341,51 @@
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="4" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="45">
-      <c r="A153" s="3" t="s">
-        <v>6</v>
+      <c r="A153" s="3">
+        <v>102</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="4" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>387</v>
+        <v>731</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="45">
-      <c r="A154" s="3">
-        <v>102</v>
+      <c r="A154" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>16</v>
@@ -6405,19 +6402,19 @@
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="4" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>393</v>
+        <v>760</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="30">
@@ -6426,19 +6423,19 @@
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="4" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>397</v>
+        <v>732</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="45">
@@ -6447,24 +6444,24 @@
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="4" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="10" t="s">
-        <v>763</v>
+        <v>714</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -6478,10 +6475,10 @@
         <v>6</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>16</v>
@@ -6498,7 +6495,7 @@
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="4" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>16</v>
@@ -6515,7 +6512,7 @@
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="4" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>16</v>
@@ -6532,19 +6529,19 @@
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="4" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="45">
@@ -6553,19 +6550,19 @@
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="4" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>411</v>
+        <v>761</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="45">
@@ -6576,13 +6573,13 @@
       <c r="C164" s="4"/>
       <c r="D164" s="3"/>
       <c r="E164" s="4" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>414</v>
+        <v>771</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="45">
@@ -6593,13 +6590,13 @@
       <c r="C165" s="4"/>
       <c r="D165" s="3"/>
       <c r="E165" s="4" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>417</v>
+        <v>762</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="60">
@@ -6608,19 +6605,19 @@
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="4" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>421</v>
+        <v>763</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="60">
@@ -6629,17 +6626,17 @@
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="4" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>299</v>
+        <v>730</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="30">
@@ -6650,13 +6647,13 @@
       <c r="C168" s="4"/>
       <c r="D168" s="3"/>
       <c r="E168" s="4" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>387</v>
+        <v>731</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="45">
@@ -6665,19 +6662,19 @@
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="4" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>429</v>
+        <v>764</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="45">
@@ -6688,13 +6685,13 @@
       <c r="C170" s="4"/>
       <c r="D170" s="3"/>
       <c r="E170" s="4" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>432</v>
+        <v>728</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="60">
@@ -6703,19 +6700,19 @@
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="4" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>176</v>
+        <v>748</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="75">
@@ -6726,18 +6723,18 @@
       <c r="C172" s="4"/>
       <c r="D172" s="3"/>
       <c r="E172" s="4" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>438</v>
+        <v>749</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="10" t="s">
-        <v>764</v>
+        <v>715</v>
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -6751,10 +6748,10 @@
         <v>6</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>16</v>
@@ -6771,7 +6768,7 @@
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="4" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>16</v>
@@ -6788,7 +6785,7 @@
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="4" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>16</v>
@@ -6805,7 +6802,7 @@
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="4" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>16</v>
@@ -6822,7 +6819,7 @@
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="4" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>16</v>
@@ -6839,7 +6836,7 @@
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="4" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>16</v>
@@ -6856,7 +6853,7 @@
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="4" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>16</v>
@@ -6873,7 +6870,7 @@
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="4" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>16</v>
@@ -6890,7 +6887,7 @@
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="4" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>16</v>
@@ -6907,19 +6904,19 @@
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="4" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="30">
@@ -6928,19 +6925,19 @@
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="4" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="45">
@@ -6949,19 +6946,19 @@
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="4" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="165">
@@ -6970,19 +6967,19 @@
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="4" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="255">
@@ -6991,19 +6988,19 @@
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="4" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="360">
@@ -7015,10 +7012,10 @@
       <c r="D188" s="3"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="60">
@@ -7027,19 +7024,19 @@
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="4" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>468</v>
+        <v>765</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="60">
@@ -7050,13 +7047,13 @@
       <c r="C190" s="4"/>
       <c r="D190" s="3"/>
       <c r="E190" s="4" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>471</v>
+        <v>766</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="60">
@@ -7065,19 +7062,19 @@
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="4" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>475</v>
+        <v>767</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="60">
@@ -7088,13 +7085,13 @@
       <c r="C192" s="4"/>
       <c r="D192" s="3"/>
       <c r="E192" s="4" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>478</v>
+        <v>768</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="30">
@@ -7103,19 +7100,19 @@
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="4" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="30">
@@ -7126,13 +7123,13 @@
       <c r="C194" s="4"/>
       <c r="D194" s="3"/>
       <c r="E194" s="4" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="30">
@@ -7143,13 +7140,13 @@
       <c r="C195" s="4"/>
       <c r="D195" s="3"/>
       <c r="E195" s="4" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="90">
@@ -7160,13 +7157,13 @@
       <c r="C196" s="4"/>
       <c r="D196" s="3"/>
       <c r="E196" s="4" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="90">
@@ -7177,13 +7174,13 @@
       <c r="C197" s="4"/>
       <c r="D197" s="3"/>
       <c r="E197" s="4" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="90">
@@ -7194,13 +7191,13 @@
       <c r="C198" s="4"/>
       <c r="D198" s="3"/>
       <c r="E198" s="4" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="45">
@@ -7209,19 +7206,19 @@
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="4" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="45">
@@ -7232,13 +7229,13 @@
       <c r="C200" s="4"/>
       <c r="D200" s="3"/>
       <c r="E200" s="4" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="45">
@@ -7249,13 +7246,13 @@
       <c r="C201" s="4"/>
       <c r="D201" s="3"/>
       <c r="E201" s="4" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="75">
@@ -7266,13 +7263,13 @@
       <c r="C202" s="4"/>
       <c r="D202" s="3"/>
       <c r="E202" s="4" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="75">
@@ -7283,13 +7280,13 @@
       <c r="C203" s="4"/>
       <c r="D203" s="3"/>
       <c r="E203" s="4" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="30">
@@ -7298,19 +7295,19 @@
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="4" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="45">
@@ -7321,13 +7318,13 @@
       <c r="C205" s="4"/>
       <c r="D205" s="3"/>
       <c r="E205" s="4" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="45">
@@ -7336,19 +7333,19 @@
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="4" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>510</v>
+        <v>735</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="45">
@@ -7359,13 +7356,13 @@
       <c r="C207" s="4"/>
       <c r="D207" s="3"/>
       <c r="E207" s="4" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>510</v>
+        <v>735</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="60">
@@ -7374,19 +7371,19 @@
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="4" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>515</v>
+        <v>769</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="60">
@@ -7397,13 +7394,13 @@
       <c r="C209" s="4"/>
       <c r="D209" s="3"/>
       <c r="E209" s="4" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>517</v>
+        <v>770</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="45">
@@ -7412,14 +7409,14 @@
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="4" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210" s="4" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>12</v>
@@ -7431,19 +7428,19 @@
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="4" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="105">
@@ -7454,13 +7451,13 @@
       <c r="C212" s="4"/>
       <c r="D212" s="3"/>
       <c r="E212" s="4" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>158</v>
+        <v>745</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="90">
@@ -7469,19 +7466,19 @@
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="4" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="90">
@@ -7492,13 +7489,13 @@
       <c r="C214" s="4"/>
       <c r="D214" s="3"/>
       <c r="E214" s="4" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="45">
@@ -7507,19 +7504,19 @@
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="4" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>438</v>
+        <v>749</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="75">
@@ -7528,19 +7525,19 @@
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="4" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>535</v>
+        <v>746</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="60">
@@ -7549,19 +7546,19 @@
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="4" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>535</v>
+        <v>746</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="60">
@@ -7572,13 +7569,13 @@
       <c r="C218" s="4"/>
       <c r="D218" s="3"/>
       <c r="E218" s="4" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>158</v>
+        <v>746</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="60">
@@ -7589,13 +7586,13 @@
       <c r="C219" s="4"/>
       <c r="D219" s="3"/>
       <c r="E219" s="4" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>535</v>
+        <v>746</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="60">
@@ -7604,19 +7601,19 @@
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="4" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="105">
@@ -7627,13 +7624,13 @@
       <c r="C221" s="4"/>
       <c r="D221" s="3"/>
       <c r="E221" s="4" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="60">
@@ -7644,13 +7641,13 @@
       <c r="C222" s="4"/>
       <c r="D222" s="3"/>
       <c r="E222" s="4" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="75">
@@ -7661,13 +7658,13 @@
       <c r="C223" s="4"/>
       <c r="D223" s="3"/>
       <c r="E223" s="4" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="60">
@@ -7678,13 +7675,13 @@
       <c r="C224" s="4"/>
       <c r="D224" s="3"/>
       <c r="E224" s="4" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="75">
@@ -7695,13 +7692,13 @@
       <c r="C225" s="4"/>
       <c r="D225" s="3"/>
       <c r="E225" s="4" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="60">
@@ -7710,19 +7707,19 @@
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="4" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>555</v>
+        <v>510</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>557</v>
+        <v>772</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="105">
@@ -7733,13 +7730,13 @@
       <c r="C227" s="4"/>
       <c r="D227" s="3"/>
       <c r="E227" s="4" t="s">
-        <v>558</v>
+        <v>512</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>559</v>
+        <v>513</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>557</v>
+        <v>772</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="60">
@@ -7750,13 +7747,13 @@
       <c r="C228" s="4"/>
       <c r="D228" s="3"/>
       <c r="E228" s="4" t="s">
-        <v>560</v>
+        <v>514</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>561</v>
+        <v>515</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>557</v>
+        <v>772</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="75">
@@ -7767,13 +7764,13 @@
       <c r="C229" s="4"/>
       <c r="D229" s="3"/>
       <c r="E229" s="4" t="s">
-        <v>560</v>
+        <v>514</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>557</v>
+        <v>772</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="60">
@@ -7784,13 +7781,13 @@
       <c r="C230" s="4"/>
       <c r="D230" s="3"/>
       <c r="E230" s="4" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>564</v>
+        <v>518</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>557</v>
+        <v>772</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="75">
@@ -7801,13 +7798,13 @@
       <c r="C231" s="4"/>
       <c r="D231" s="3"/>
       <c r="E231" s="4" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>557</v>
+        <v>772</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="60">
@@ -7816,19 +7813,19 @@
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="4" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>567</v>
+        <v>521</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>568</v>
+        <v>522</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>438</v>
+        <v>749</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="105">
@@ -7839,13 +7836,13 @@
       <c r="C233" s="4"/>
       <c r="D233" s="3"/>
       <c r="E233" s="4" t="s">
-        <v>567</v>
+        <v>521</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>569</v>
+        <v>523</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>438</v>
+        <v>749</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="60">
@@ -7856,13 +7853,13 @@
       <c r="C234" s="4"/>
       <c r="D234" s="3"/>
       <c r="E234" s="4" t="s">
-        <v>570</v>
+        <v>524</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>438</v>
+        <v>749</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="75">
@@ -7873,13 +7870,13 @@
       <c r="C235" s="4"/>
       <c r="D235" s="3"/>
       <c r="E235" s="4" t="s">
-        <v>570</v>
+        <v>524</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>438</v>
+        <v>749</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="60">
@@ -7890,13 +7887,13 @@
       <c r="C236" s="4"/>
       <c r="D236" s="3"/>
       <c r="E236" s="4" t="s">
-        <v>573</v>
+        <v>527</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>438</v>
+        <v>749</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="75">
@@ -7907,18 +7904,18 @@
       <c r="C237" s="4"/>
       <c r="D237" s="3"/>
       <c r="E237" s="4" t="s">
-        <v>573</v>
+        <v>527</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>438</v>
+        <v>749</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="10" t="s">
-        <v>765</v>
+        <v>716</v>
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -7932,27 +7929,27 @@
         <v>171</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>576</v>
+        <v>530</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>577</v>
+        <v>531</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>578</v>
+        <v>532</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="10" t="s">
-        <v>766</v>
+        <v>717</v>
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -7966,16 +7963,16 @@
         <v>6</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="4" t="s">
@@ -7988,13 +7985,13 @@
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="4" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="4" t="s">
@@ -8007,13 +8004,13 @@
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="4" t="s">
-        <v>585</v>
+        <v>538</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>586</v>
+        <v>539</v>
       </c>
       <c r="F243" s="4"/>
       <c r="G243" s="4" t="s">
@@ -8026,13 +8023,13 @@
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="4" t="s">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>588</v>
+        <v>541</v>
       </c>
       <c r="F244" s="4"/>
       <c r="G244" s="4" t="s">
@@ -8045,13 +8042,13 @@
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="4" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>590</v>
+        <v>543</v>
       </c>
       <c r="F245" s="4"/>
       <c r="G245" s="4" t="s">
@@ -8064,13 +8061,13 @@
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="4" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="F246" s="4"/>
       <c r="G246" s="4" t="s">
@@ -8083,13 +8080,13 @@
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="4" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>594</v>
+        <v>547</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="4" t="s">
@@ -8102,13 +8099,13 @@
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="4" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>596</v>
+        <v>549</v>
       </c>
       <c r="F248" s="4"/>
       <c r="G248" s="4" t="s">
@@ -8121,19 +8118,19 @@
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="4" t="s">
-        <v>597</v>
+        <v>550</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>598</v>
+        <v>551</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>599</v>
+        <v>552</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="45">
@@ -8142,19 +8139,19 @@
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="4" t="s">
-        <v>600</v>
+        <v>553</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>601</v>
+        <v>554</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>602</v>
+        <v>555</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="75">
@@ -8163,19 +8160,19 @@
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="4" t="s">
-        <v>603</v>
+        <v>556</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>604</v>
+        <v>557</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="150">
@@ -8184,19 +8181,19 @@
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="4" t="s">
-        <v>606</v>
+        <v>559</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>607</v>
+        <v>560</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="135">
@@ -8208,15 +8205,15 @@
       <c r="D253" s="3"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="10" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -8230,16 +8227,16 @@
         <v>6</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>611</v>
+        <v>564</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="4" t="s">
@@ -8252,13 +8249,13 @@
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="4" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>614</v>
+        <v>567</v>
       </c>
       <c r="F256" s="4"/>
       <c r="G256" s="4" t="s">
@@ -8271,13 +8268,13 @@
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="4" t="s">
-        <v>615</v>
+        <v>568</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="4" t="s">
@@ -8290,19 +8287,19 @@
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="4" t="s">
-        <v>617</v>
+        <v>570</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>619</v>
+        <v>572</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="75">
@@ -8313,13 +8310,13 @@
       <c r="C259" s="4"/>
       <c r="D259" s="3"/>
       <c r="E259" s="4" t="s">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="165">
@@ -8330,13 +8327,13 @@
       <c r="C260" s="4"/>
       <c r="D260" s="3"/>
       <c r="E260" s="4" t="s">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>624</v>
+        <v>577</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="135">
@@ -8345,17 +8342,17 @@
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="4" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E261" s="4"/>
       <c r="F261" s="4" t="s">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="75">
@@ -8367,10 +8364,10 @@
       <c r="D262" s="3"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4" t="s">
-        <v>627</v>
+        <v>580</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="60">
@@ -8379,24 +8376,24 @@
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="4" t="s">
-        <v>628</v>
+        <v>581</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>629</v>
+        <v>582</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>510</v>
+        <v>735</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="10" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
@@ -8410,22 +8407,22 @@
         <v>178</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>632</v>
+        <v>585</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="75">
@@ -8436,13 +8433,13 @@
       <c r="C266" s="4"/>
       <c r="D266" s="3"/>
       <c r="E266" s="4" t="s">
-        <v>634</v>
+        <v>587</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="75">
@@ -8451,19 +8448,19 @@
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="4" t="s">
-        <v>636</v>
+        <v>589</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>432</v>
+        <v>728</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="60">
@@ -8474,18 +8471,18 @@
       <c r="C268" s="4"/>
       <c r="D268" s="3"/>
       <c r="E268" s="4" t="s">
-        <v>639</v>
+        <v>592</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>640</v>
+        <v>593</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>432</v>
+        <v>728</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="10" t="s">
-        <v>769</v>
+        <v>720</v>
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
@@ -8499,22 +8496,22 @@
         <v>6</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>643</v>
+        <v>596</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="60">
@@ -8526,10 +8523,10 @@
       <c r="D271" s="3"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4" t="s">
-        <v>644</v>
+        <v>597</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="150">
@@ -8538,19 +8535,19 @@
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="4" t="s">
-        <v>645</v>
+        <v>598</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>646</v>
+        <v>599</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="105">
@@ -8559,13 +8556,13 @@
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="4" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
       <c r="F273" s="4"/>
       <c r="G273" s="4" t="s">
@@ -8574,17 +8571,17 @@
     </row>
     <row r="274" spans="1:7" ht="90">
       <c r="A274" s="3" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="4" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>652</v>
+        <v>605</v>
       </c>
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
@@ -8597,10 +8594,10 @@
       <c r="C275" s="4"/>
       <c r="D275" s="3"/>
       <c r="E275" s="4" t="s">
-        <v>653</v>
+        <v>606</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>654</v>
+        <v>607</v>
       </c>
       <c r="G275" s="4" t="s">
         <v>18</v>
@@ -8614,13 +8611,13 @@
       <c r="C276" s="4"/>
       <c r="D276" s="3"/>
       <c r="E276" s="4" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="45">
@@ -8631,10 +8628,10 @@
       <c r="C277" s="4"/>
       <c r="D277" s="3"/>
       <c r="E277" s="4" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="G277" s="4" t="s">
         <v>18</v>
@@ -8648,13 +8645,13 @@
       <c r="C278" s="4"/>
       <c r="D278" s="3"/>
       <c r="E278" s="4" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="60">
@@ -8665,13 +8662,13 @@
       <c r="C279" s="4"/>
       <c r="D279" s="3"/>
       <c r="E279" s="4" t="s">
-        <v>661</v>
+        <v>614</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -8680,13 +8677,13 @@
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="4" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>664</v>
+        <v>617</v>
       </c>
       <c r="F280" s="4"/>
       <c r="G280" s="4" t="s">
@@ -8695,17 +8692,17 @@
     </row>
     <row r="281" spans="1:7" ht="45">
       <c r="A281" s="3" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="4" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
@@ -8718,13 +8715,13 @@
       <c r="C282" s="4"/>
       <c r="D282" s="3"/>
       <c r="E282" s="4" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="60">
@@ -8735,13 +8732,13 @@
       <c r="C283" s="4"/>
       <c r="D283" s="3"/>
       <c r="E283" s="4" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="60">
@@ -8752,13 +8749,13 @@
       <c r="C284" s="4"/>
       <c r="D284" s="3"/>
       <c r="E284" s="4" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="60">
@@ -8769,13 +8766,13 @@
       <c r="C285" s="4"/>
       <c r="D285" s="3"/>
       <c r="E285" s="4" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="60">
@@ -8786,13 +8783,13 @@
       <c r="C286" s="4"/>
       <c r="D286" s="3"/>
       <c r="E286" s="4" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="30">
@@ -8800,16 +8797,16 @@
         <v>6</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="F287" s="4"/>
       <c r="G287" s="4" t="s">
@@ -8822,13 +8819,13 @@
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="4" t="s">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="F288" s="4"/>
       <c r="G288" s="4" t="s">
@@ -8841,19 +8838,19 @@
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="4" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>682</v>
+        <v>635</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>683</v>
+        <v>636</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="45">
@@ -8862,19 +8859,19 @@
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="4" t="s">
-        <v>684</v>
+        <v>637</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>685</v>
+        <v>638</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>686</v>
+        <v>639</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="60">
@@ -8883,19 +8880,19 @@
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="4" t="s">
-        <v>687</v>
+        <v>640</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>387</v>
+        <v>731</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="120">
@@ -8904,19 +8901,19 @@
       </c>
       <c r="B292" s="2"/>
       <c r="C292" s="4" t="s">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>387</v>
+        <v>731</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="45">
@@ -8925,19 +8922,19 @@
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="4" t="s">
-        <v>693</v>
+        <v>646</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="75">
@@ -8946,19 +8943,19 @@
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="4" t="s">
-        <v>696</v>
+        <v>649</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>699</v>
+        <v>740</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="45">
@@ -8967,19 +8964,19 @@
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="4" t="s">
-        <v>700</v>
+        <v>652</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>701</v>
+        <v>653</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>702</v>
+        <v>654</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="45">
@@ -8988,19 +8985,19 @@
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="4" t="s">
-        <v>703</v>
+        <v>655</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>705</v>
+        <v>657</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="30">
@@ -9009,22 +9006,22 @@
       </c>
       <c r="B297" s="2"/>
       <c r="C297" s="4" t="s">
-        <v>706</v>
+        <v>658</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="4"/>
       <c r="F297" s="4" t="s">
-        <v>707</v>
+        <v>659</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="10" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
@@ -9038,22 +9035,22 @@
         <v>190</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>708</v>
+        <v>660</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>709</v>
+        <v>661</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>710</v>
+        <v>662</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>711</v>
+        <v>663</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="150">
@@ -9065,10 +9062,10 @@
       <c r="D300" s="3"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4" t="s">
-        <v>712</v>
+        <v>664</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="75">
@@ -9077,24 +9074,24 @@
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="4" t="s">
-        <v>713</v>
+        <v>665</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>714</v>
+        <v>666</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>715</v>
+        <v>667</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="10" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
@@ -9108,22 +9105,22 @@
         <v>193</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>716</v>
+        <v>668</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>717</v>
+        <v>669</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>718</v>
+        <v>670</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>719</v>
+        <v>671</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="60">
@@ -9134,13 +9131,13 @@
       <c r="C304" s="4"/>
       <c r="D304" s="3"/>
       <c r="E304" s="4" t="s">
-        <v>720</v>
+        <v>672</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>721</v>
+        <v>673</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="105">
@@ -9148,27 +9145,27 @@
         <v>6</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>722</v>
+        <v>674</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>724</v>
+        <v>676</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>726</v>
+        <v>678</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>727</v>
+        <v>679</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="10" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
@@ -9183,19 +9180,19 @@
       </c>
       <c r="B307" s="2"/>
       <c r="C307" s="4" t="s">
-        <v>728</v>
+        <v>680</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>724</v>
+        <v>676</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>729</v>
+        <v>681</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>730</v>
+        <v>682</v>
       </c>
       <c r="G307" s="4" t="s">
-        <v>727</v>
+        <v>679</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="75">
@@ -9204,24 +9201,24 @@
       </c>
       <c r="B308" s="2"/>
       <c r="C308" s="4" t="s">
-        <v>731</v>
+        <v>683</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>732</v>
+        <v>684</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>733</v>
+        <v>685</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="10" t="s">
-        <v>773</v>
+        <v>724</v>
       </c>
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
@@ -9236,19 +9233,19 @@
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="8" t="s">
-        <v>734</v>
+        <v>686</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>735</v>
+        <v>687</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>736</v>
+        <v>688</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="165">
@@ -9259,13 +9256,13 @@
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
       <c r="E311" s="9" t="s">
-        <v>737</v>
+        <v>689</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>738</v>
+        <v>690</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="45">
@@ -9274,19 +9271,19 @@
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="8" t="s">
-        <v>739</v>
+        <v>691</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>740</v>
+        <v>692</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>741</v>
+        <v>693</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="75">
@@ -9297,13 +9294,13 @@
       <c r="C313" s="8"/>
       <c r="D313" s="8"/>
       <c r="E313" s="9" t="s">
-        <v>742</v>
+        <v>694</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>743</v>
+        <v>695</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="60">
@@ -9312,19 +9309,19 @@
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="8" t="s">
-        <v>744</v>
+        <v>696</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>745</v>
+        <v>697</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>746</v>
+        <v>698</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="60">
@@ -9335,13 +9332,13 @@
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
       <c r="E315" s="9" t="s">
-        <v>747</v>
+        <v>699</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>748</v>
+        <v>700</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="45">
@@ -9350,19 +9347,19 @@
       </c>
       <c r="B316" s="8"/>
       <c r="C316" s="8" t="s">
-        <v>749</v>
+        <v>701</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E316" s="9" t="s">
-        <v>750</v>
+        <v>702</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>751</v>
+        <v>703</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>387</v>
+        <v>731</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="45">
@@ -9371,19 +9368,19 @@
       </c>
       <c r="B317" s="8"/>
       <c r="C317" s="8" t="s">
-        <v>752</v>
+        <v>704</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>753</v>
+        <v>705</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>754</v>
+        <v>706</v>
       </c>
       <c r="G317" s="8" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="14.25" customHeight="1"/>
@@ -10162,6 +10159,15 @@
     <row r="1091" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="A158:G158"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A136:G136"/>
+    <mergeCell ref="A142:G142"/>
     <mergeCell ref="A309:G309"/>
     <mergeCell ref="A173:G173"/>
     <mergeCell ref="A238:G238"/>
@@ -10172,15 +10178,6 @@
     <mergeCell ref="A298:G298"/>
     <mergeCell ref="A302:G302"/>
     <mergeCell ref="A306:G306"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="A147:G147"/>
-    <mergeCell ref="A158:G158"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A142:G142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/‏‏MulVAL Interaction Rules.xlsx
+++ b/‏‏MulVAL Interaction Rules.xlsx
@@ -3275,7 +3275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3301,6 +3301,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3559,15 +3562,15 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="75">
       <c r="A3" s="3" t="s">
@@ -4381,7 +4384,7 @@
     </row>
     <row r="48" spans="1:7" ht="60">
       <c r="A48" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="4" t="s">
@@ -4421,7 +4424,7 @@
     </row>
     <row r="50" spans="1:7" ht="60" customHeight="1">
       <c r="A50" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>105</v>
@@ -4444,7 +4447,7 @@
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="A51" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="4"/>
@@ -4461,7 +4464,7 @@
     </row>
     <row r="52" spans="1:7" ht="60">
       <c r="A52" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="4" t="s">
@@ -4482,7 +4485,7 @@
     </row>
     <row r="53" spans="1:7" ht="90">
       <c r="A53" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="4" t="s">
@@ -4503,7 +4506,7 @@
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -4520,7 +4523,7 @@
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="4" t="s">
@@ -4562,7 +4565,7 @@
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>125</v>
@@ -4585,7 +4588,7 @@
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="A58" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="4"/>
@@ -4700,19 +4703,19 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="1:7" ht="90">
       <c r="A65" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>143</v>
@@ -4735,7 +4738,7 @@
     </row>
     <row r="66" spans="1:7" ht="120">
       <c r="A66" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="4"/>
@@ -4752,7 +4755,7 @@
     </row>
     <row r="67" spans="1:7" ht="195">
       <c r="A67" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="4"/>
@@ -4769,7 +4772,7 @@
     </row>
     <row r="68" spans="1:7" ht="105">
       <c r="A68" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="4"/>
@@ -4786,7 +4789,7 @@
     </row>
     <row r="69" spans="1:7" ht="150">
       <c r="A69" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="4" t="s">
@@ -4807,7 +4810,7 @@
     </row>
     <row r="70" spans="1:7" ht="150">
       <c r="A70" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="4"/>
@@ -4824,7 +4827,7 @@
     </row>
     <row r="71" spans="1:7" ht="90">
       <c r="A71" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="4"/>
@@ -4841,7 +4844,7 @@
     </row>
     <row r="72" spans="1:7" ht="90">
       <c r="A72" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>160</v>
@@ -4864,7 +4867,7 @@
     </row>
     <row r="73" spans="1:7" ht="120">
       <c r="A73" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="4"/>
@@ -4881,7 +4884,7 @@
     </row>
     <row r="74" spans="1:7" ht="120">
       <c r="A74" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="4"/>
@@ -4898,7 +4901,7 @@
     </row>
     <row r="75" spans="1:7" ht="75">
       <c r="A75" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>168</v>
@@ -4921,7 +4924,7 @@
     </row>
     <row r="76" spans="1:7" ht="45">
       <c r="A76" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="4" t="s">
@@ -4940,7 +4943,7 @@
     </row>
     <row r="77" spans="1:7" ht="60">
       <c r="A77" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="4"/>
@@ -4957,7 +4960,7 @@
     </row>
     <row r="78" spans="1:7" ht="30">
       <c r="A78" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="4"/>
@@ -4974,7 +4977,7 @@
     </row>
     <row r="79" spans="1:7" ht="30">
       <c r="A79" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="4"/>
@@ -4991,7 +4994,7 @@
     </row>
     <row r="80" spans="1:7" ht="90">
       <c r="A80" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="4"/>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="81" spans="1:7" ht="75">
       <c r="A81" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
@@ -5029,7 +5032,7 @@
     </row>
     <row r="82" spans="1:7" ht="30">
       <c r="A82" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="4" t="s">
@@ -5048,7 +5051,7 @@
     </row>
     <row r="83" spans="1:7" ht="60">
       <c r="A83" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="4"/>
@@ -5065,7 +5068,7 @@
     </row>
     <row r="84" spans="1:7" ht="105">
       <c r="A84" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>189</v>
@@ -5088,7 +5091,7 @@
     </row>
     <row r="85" spans="1:7" ht="120">
       <c r="A85" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="4"/>
@@ -5105,7 +5108,7 @@
     </row>
     <row r="86" spans="1:7" ht="105">
       <c r="A86" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="4" t="s">
@@ -5126,7 +5129,7 @@
     </row>
     <row r="87" spans="1:7" ht="150">
       <c r="A87" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="4" t="s">
@@ -5147,7 +5150,7 @@
     </row>
     <row r="88" spans="1:7" ht="90">
       <c r="A88" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="4"/>
@@ -5164,7 +5167,7 @@
     </row>
     <row r="89" spans="1:7" ht="90">
       <c r="A89" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="4"/>
@@ -5181,7 +5184,7 @@
     </row>
     <row r="90" spans="1:7" ht="75">
       <c r="A90" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="4"/>
@@ -5198,7 +5201,7 @@
     </row>
     <row r="91" spans="1:7" ht="75">
       <c r="A91" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
@@ -5219,7 +5222,7 @@
     </row>
     <row r="92" spans="1:7" ht="150">
       <c r="A92" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
@@ -5240,7 +5243,7 @@
     </row>
     <row r="93" spans="1:7" ht="120">
       <c r="A93" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
@@ -5261,7 +5264,7 @@
     </row>
     <row r="94" spans="1:7" ht="30">
       <c r="A94" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="4"/>
@@ -5278,7 +5281,7 @@
     </row>
     <row r="95" spans="1:7" ht="90">
       <c r="A95" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="4" t="s">
@@ -5299,7 +5302,7 @@
     </row>
     <row r="96" spans="1:7" ht="30">
       <c r="A96" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>222</v>
@@ -5320,7 +5323,7 @@
     </row>
     <row r="97" spans="1:7" ht="30">
       <c r="A97" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="4"/>
@@ -5337,7 +5340,7 @@
     </row>
     <row r="98" spans="1:7" ht="90">
       <c r="A98" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="4"/>
@@ -5354,7 +5357,7 @@
     </row>
     <row r="99" spans="1:7" ht="60">
       <c r="A99" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="4" t="s">
@@ -5375,7 +5378,7 @@
     </row>
     <row r="100" spans="1:7" ht="120">
       <c r="A100" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="4" t="s">
@@ -5396,7 +5399,7 @@
     </row>
     <row r="101" spans="1:7" ht="45">
       <c r="A101" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="4" t="s">
@@ -5417,7 +5420,7 @@
     </row>
     <row r="102" spans="1:7" ht="60">
       <c r="A102" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="4" t="s">
@@ -5438,7 +5441,7 @@
     </row>
     <row r="103" spans="1:7" ht="60">
       <c r="A103" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="4"/>
@@ -5455,7 +5458,7 @@
     </row>
     <row r="104" spans="1:7" ht="90">
       <c r="A104" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="4"/>
@@ -5472,7 +5475,7 @@
     </row>
     <row r="105" spans="1:7" ht="135">
       <c r="A105" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="4"/>
@@ -5489,7 +5492,7 @@
     </row>
     <row r="106" spans="1:7" ht="60">
       <c r="A106" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="4"/>
@@ -5506,7 +5509,7 @@
     </row>
     <row r="107" spans="1:7" ht="60">
       <c r="A107" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="4"/>
@@ -5523,7 +5526,7 @@
     </row>
     <row r="108" spans="1:7" ht="45">
       <c r="A108" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="4" t="s">
@@ -5544,7 +5547,7 @@
     </row>
     <row r="109" spans="1:7" ht="75">
       <c r="A109" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="4" t="s">
@@ -5565,7 +5568,7 @@
     </row>
     <row r="110" spans="1:7" ht="60">
       <c r="A110" s="3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="4"/>
@@ -5582,7 +5585,7 @@
     </row>
     <row r="111" spans="1:7" ht="60">
       <c r="A111" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="4"/>
@@ -5599,7 +5602,7 @@
     </row>
     <row r="112" spans="1:7" ht="60">
       <c r="A112" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="4" t="s">
@@ -5620,7 +5623,7 @@
     </row>
     <row r="113" spans="1:7" ht="45">
       <c r="A113" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="4"/>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="114" spans="1:7" ht="45">
       <c r="A114" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="4"/>
@@ -5654,7 +5657,7 @@
     </row>
     <row r="115" spans="1:7" ht="45">
       <c r="A115" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="4"/>
@@ -5671,7 +5674,7 @@
     </row>
     <row r="116" spans="1:7" ht="30">
       <c r="A116" s="3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="4" t="s">
@@ -5692,7 +5695,7 @@
     </row>
     <row r="117" spans="1:7" ht="75">
       <c r="A117" s="3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="4" t="s">
@@ -5713,7 +5716,7 @@
     </row>
     <row r="118" spans="1:7" ht="60">
       <c r="A118" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="4"/>
@@ -5730,7 +5733,7 @@
     </row>
     <row r="119" spans="1:7" ht="75">
       <c r="A119" s="3">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="4" t="s">
@@ -5751,7 +5754,7 @@
     </row>
     <row r="120" spans="1:7" ht="30">
       <c r="A120" s="3">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="4" t="s">
@@ -5772,7 +5775,7 @@
     </row>
     <row r="121" spans="1:7" ht="30">
       <c r="A121" s="3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="4"/>
@@ -5789,7 +5792,7 @@
     </row>
     <row r="122" spans="1:7" ht="30">
       <c r="A122" s="3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="4" t="s">
@@ -5810,7 +5813,7 @@
     </row>
     <row r="123" spans="1:7" ht="30">
       <c r="A123" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="4"/>
@@ -5827,7 +5830,7 @@
     </row>
     <row r="124" spans="1:7" ht="30">
       <c r="A124" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="4"/>
@@ -5843,19 +5846,19 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
     </row>
     <row r="126" spans="1:7" ht="45">
       <c r="A126" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="4" t="s">
@@ -5876,7 +5879,7 @@
     </row>
     <row r="127" spans="1:7" ht="75">
       <c r="A127" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="4" t="s">
@@ -5897,7 +5900,7 @@
     </row>
     <row r="128" spans="1:7" ht="75">
       <c r="A128" s="3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="4"/>
@@ -5912,7 +5915,7 @@
     </row>
     <row r="129" spans="1:7" ht="75">
       <c r="A129" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="4" t="s">
@@ -5952,7 +5955,7 @@
     </row>
     <row r="131" spans="1:7" ht="45">
       <c r="A131" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="4" t="s">
@@ -5973,7 +5976,7 @@
     </row>
     <row r="132" spans="1:7" ht="75">
       <c r="A132" s="3">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="4" t="s">
@@ -5993,19 +5996,19 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
     </row>
     <row r="134" spans="1:7" ht="60">
       <c r="A134" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="4" t="s">
@@ -6026,7 +6029,7 @@
     </row>
     <row r="135" spans="1:7" ht="75">
       <c r="A135" s="3">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="4" t="s">
@@ -6044,15 +6047,15 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
     </row>
     <row r="137" spans="1:7" ht="75">
       <c r="A137" s="3" t="s">
@@ -6094,7 +6097,7 @@
     </row>
     <row r="139" spans="1:7" ht="75">
       <c r="A139" s="3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>323</v>
@@ -6117,7 +6120,7 @@
     </row>
     <row r="140" spans="1:7" ht="255">
       <c r="A140" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="4" t="s">
@@ -6138,7 +6141,7 @@
     </row>
     <row r="141" spans="1:7" ht="180">
       <c r="A141" s="3">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>330</v>
@@ -6160,19 +6163,19 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
     </row>
     <row r="143" spans="1:7" ht="105">
       <c r="A143" s="3">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>334</v>
@@ -6194,19 +6197,19 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
     </row>
     <row r="145" spans="1:7" ht="45">
       <c r="A145" s="3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>338</v>
@@ -6229,7 +6232,7 @@
     </row>
     <row r="146" spans="1:7" ht="45">
       <c r="A146" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>343</v>
@@ -6249,15 +6252,15 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
     </row>
     <row r="148" spans="1:7" ht="45">
       <c r="A148" s="3" t="s">
@@ -6358,7 +6361,7 @@
     </row>
     <row r="153" spans="1:7" ht="45">
       <c r="A153" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="4" t="s">
@@ -6398,7 +6401,7 @@
     </row>
     <row r="155" spans="1:7" ht="60">
       <c r="A155" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="4" t="s">
@@ -6419,7 +6422,7 @@
     </row>
     <row r="156" spans="1:7" ht="30">
       <c r="A156" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="4" t="s">
@@ -6440,7 +6443,7 @@
     </row>
     <row r="157" spans="1:7" ht="45">
       <c r="A157" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="4" t="s">
@@ -6460,15 +6463,15 @@
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="3" t="s">
@@ -6525,7 +6528,7 @@
     </row>
     <row r="162" spans="1:7" ht="30">
       <c r="A162" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="4" t="s">
@@ -6546,7 +6549,7 @@
     </row>
     <row r="163" spans="1:7" ht="45">
       <c r="A163" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="4" t="s">
@@ -6567,7 +6570,7 @@
     </row>
     <row r="164" spans="1:7" ht="45">
       <c r="A164" s="3">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
@@ -6584,7 +6587,7 @@
     </row>
     <row r="165" spans="1:7" ht="45">
       <c r="A165" s="3">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="4"/>
@@ -6601,7 +6604,7 @@
     </row>
     <row r="166" spans="1:7" ht="60">
       <c r="A166" s="3">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="4" t="s">
@@ -6622,7 +6625,7 @@
     </row>
     <row r="167" spans="1:7" ht="60">
       <c r="A167" s="3">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="4" t="s">
@@ -6641,7 +6644,7 @@
     </row>
     <row r="168" spans="1:7" ht="30">
       <c r="A168" s="3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="4"/>
@@ -6658,7 +6661,7 @@
     </row>
     <row r="169" spans="1:7" ht="45">
       <c r="A169" s="3">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="4" t="s">
@@ -6679,7 +6682,7 @@
     </row>
     <row r="170" spans="1:7" ht="45">
       <c r="A170" s="3">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
@@ -6696,7 +6699,7 @@
     </row>
     <row r="171" spans="1:7" ht="60">
       <c r="A171" s="3">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="4" t="s">
@@ -6717,7 +6720,7 @@
     </row>
     <row r="172" spans="1:7" ht="75">
       <c r="A172" s="3">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="4"/>
@@ -6733,15 +6736,15 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="10" t="s">
+      <c r="A173" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="3" t="s">
@@ -6900,7 +6903,7 @@
     </row>
     <row r="183" spans="1:7" ht="30">
       <c r="A183" s="3">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="4" t="s">
@@ -6921,7 +6924,7 @@
     </row>
     <row r="184" spans="1:7" ht="30">
       <c r="A184" s="3">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="4" t="s">
@@ -6942,7 +6945,7 @@
     </row>
     <row r="185" spans="1:7" ht="45">
       <c r="A185" s="3">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="4" t="s">
@@ -6963,7 +6966,7 @@
     </row>
     <row r="186" spans="1:7" ht="165">
       <c r="A186" s="3">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="4" t="s">
@@ -6984,7 +6987,7 @@
     </row>
     <row r="187" spans="1:7" ht="255">
       <c r="A187" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="4" t="s">
@@ -7005,7 +7008,7 @@
     </row>
     <row r="188" spans="1:7" ht="360">
       <c r="A188" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="4"/>
@@ -7020,7 +7023,7 @@
     </row>
     <row r="189" spans="1:7" ht="60">
       <c r="A189" s="3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="4" t="s">
@@ -7041,7 +7044,7 @@
     </row>
     <row r="190" spans="1:7" ht="60">
       <c r="A190" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="4"/>
@@ -7058,7 +7061,7 @@
     </row>
     <row r="191" spans="1:7" ht="60">
       <c r="A191" s="3">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="4" t="s">
@@ -7079,7 +7082,7 @@
     </row>
     <row r="192" spans="1:7" ht="60">
       <c r="A192" s="3">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="4"/>
@@ -7096,7 +7099,7 @@
     </row>
     <row r="193" spans="1:7" ht="30">
       <c r="A193" s="3">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="4" t="s">
@@ -7117,7 +7120,7 @@
     </row>
     <row r="194" spans="1:7" ht="30">
       <c r="A194" s="3">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="4"/>
@@ -7134,7 +7137,7 @@
     </row>
     <row r="195" spans="1:7" ht="30">
       <c r="A195" s="3">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="4"/>
@@ -7151,7 +7154,7 @@
     </row>
     <row r="196" spans="1:7" ht="90">
       <c r="A196" s="3">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="4"/>
@@ -7168,7 +7171,7 @@
     </row>
     <row r="197" spans="1:7" ht="90">
       <c r="A197" s="3">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="4"/>
@@ -7185,7 +7188,7 @@
     </row>
     <row r="198" spans="1:7" ht="90">
       <c r="A198" s="3">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="4"/>
@@ -7202,7 +7205,7 @@
     </row>
     <row r="199" spans="1:7" ht="45">
       <c r="A199" s="3">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="4" t="s">
@@ -7223,7 +7226,7 @@
     </row>
     <row r="200" spans="1:7" ht="45">
       <c r="A200" s="3">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="4"/>
@@ -7240,7 +7243,7 @@
     </row>
     <row r="201" spans="1:7" ht="45">
       <c r="A201" s="3">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="4"/>
@@ -7257,7 +7260,7 @@
     </row>
     <row r="202" spans="1:7" ht="75">
       <c r="A202" s="3">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="4"/>
@@ -7274,7 +7277,7 @@
     </row>
     <row r="203" spans="1:7" ht="75">
       <c r="A203" s="3">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="4"/>
@@ -7291,7 +7294,7 @@
     </row>
     <row r="204" spans="1:7" ht="30">
       <c r="A204" s="3">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="4" t="s">
@@ -7312,7 +7315,7 @@
     </row>
     <row r="205" spans="1:7" ht="45">
       <c r="A205" s="3">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="4"/>
@@ -7329,7 +7332,7 @@
     </row>
     <row r="206" spans="1:7" ht="45">
       <c r="A206" s="3">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="4" t="s">
@@ -7350,7 +7353,7 @@
     </row>
     <row r="207" spans="1:7" ht="45">
       <c r="A207" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="4"/>
@@ -7367,7 +7370,7 @@
     </row>
     <row r="208" spans="1:7" ht="60">
       <c r="A208" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="4" t="s">
@@ -7388,7 +7391,7 @@
     </row>
     <row r="209" spans="1:7" ht="60">
       <c r="A209" s="3">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="4"/>
@@ -7424,7 +7427,7 @@
     </row>
     <row r="211" spans="1:7" ht="105">
       <c r="A211" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="4" t="s">
@@ -7445,7 +7448,7 @@
     </row>
     <row r="212" spans="1:7" ht="105">
       <c r="A212" s="3">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="4"/>
@@ -7462,7 +7465,7 @@
     </row>
     <row r="213" spans="1:7" ht="90">
       <c r="A213" s="3">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="4" t="s">
@@ -7483,7 +7486,7 @@
     </row>
     <row r="214" spans="1:7" ht="90">
       <c r="A214" s="3">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="4"/>
@@ -7500,7 +7503,7 @@
     </row>
     <row r="215" spans="1:7" ht="45">
       <c r="A215" s="3">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="4" t="s">
@@ -7521,7 +7524,7 @@
     </row>
     <row r="216" spans="1:7" ht="75">
       <c r="A216" s="3">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="4" t="s">
@@ -7542,7 +7545,7 @@
     </row>
     <row r="217" spans="1:7" ht="60">
       <c r="A217" s="3">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="4" t="s">
@@ -7563,7 +7566,7 @@
     </row>
     <row r="218" spans="1:7" ht="60">
       <c r="A218" s="3">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="4"/>
@@ -7580,7 +7583,7 @@
     </row>
     <row r="219" spans="1:7" ht="60">
       <c r="A219" s="3">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="4"/>
@@ -7597,7 +7600,7 @@
     </row>
     <row r="220" spans="1:7" ht="60">
       <c r="A220" s="3">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="4" t="s">
@@ -7618,7 +7621,7 @@
     </row>
     <row r="221" spans="1:7" ht="105">
       <c r="A221" s="3">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="4"/>
@@ -7635,7 +7638,7 @@
     </row>
     <row r="222" spans="1:7" ht="60">
       <c r="A222" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="4"/>
@@ -7652,7 +7655,7 @@
     </row>
     <row r="223" spans="1:7" ht="75">
       <c r="A223" s="3">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="4"/>
@@ -7669,7 +7672,7 @@
     </row>
     <row r="224" spans="1:7" ht="60">
       <c r="A224" s="3">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="4"/>
@@ -7686,7 +7689,7 @@
     </row>
     <row r="225" spans="1:7" ht="75">
       <c r="A225" s="3">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="4"/>
@@ -7703,7 +7706,7 @@
     </row>
     <row r="226" spans="1:7" ht="60">
       <c r="A226" s="3">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="4" t="s">
@@ -7724,7 +7727,7 @@
     </row>
     <row r="227" spans="1:7" ht="105">
       <c r="A227" s="3">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="4"/>
@@ -7741,7 +7744,7 @@
     </row>
     <row r="228" spans="1:7" ht="60">
       <c r="A228" s="3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="4"/>
@@ -7758,7 +7761,7 @@
     </row>
     <row r="229" spans="1:7" ht="75">
       <c r="A229" s="3">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="4"/>
@@ -7775,7 +7778,7 @@
     </row>
     <row r="230" spans="1:7" ht="60">
       <c r="A230" s="3">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="4"/>
@@ -7792,7 +7795,7 @@
     </row>
     <row r="231" spans="1:7" ht="75">
       <c r="A231" s="3">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="4"/>
@@ -7809,7 +7812,7 @@
     </row>
     <row r="232" spans="1:7" ht="60">
       <c r="A232" s="3">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="4" t="s">
@@ -7830,7 +7833,7 @@
     </row>
     <row r="233" spans="1:7" ht="105">
       <c r="A233" s="3">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="4"/>
@@ -7847,7 +7850,7 @@
     </row>
     <row r="234" spans="1:7" ht="60">
       <c r="A234" s="3">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="4"/>
@@ -7864,7 +7867,7 @@
     </row>
     <row r="235" spans="1:7" ht="75">
       <c r="A235" s="3">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="4"/>
@@ -7881,7 +7884,7 @@
     </row>
     <row r="236" spans="1:7" ht="60">
       <c r="A236" s="3">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="4"/>
@@ -7898,7 +7901,7 @@
     </row>
     <row r="237" spans="1:7" ht="75">
       <c r="A237" s="3">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="4"/>
@@ -7914,19 +7917,19 @@
       </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="10" t="s">
+      <c r="A238" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
-      <c r="E238" s="11"/>
-      <c r="F238" s="11"/>
-      <c r="G238" s="11"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
     </row>
     <row r="239" spans="1:7" ht="75">
       <c r="A239" s="3">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>530</v>
@@ -7948,15 +7951,15 @@
       </c>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
-      <c r="E240" s="11"/>
-      <c r="F240" s="11"/>
-      <c r="G240" s="11"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
     </row>
     <row r="241" spans="1:7" ht="30">
       <c r="A241" s="3" t="s">
@@ -8114,7 +8117,7 @@
     </row>
     <row r="249" spans="1:7" ht="45">
       <c r="A249" s="3">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="4" t="s">
@@ -8135,7 +8138,7 @@
     </row>
     <row r="250" spans="1:7" ht="45">
       <c r="A250" s="3">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="4" t="s">
@@ -8156,7 +8159,7 @@
     </row>
     <row r="251" spans="1:7" ht="75">
       <c r="A251" s="3">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="4" t="s">
@@ -8177,7 +8180,7 @@
     </row>
     <row r="252" spans="1:7" ht="150">
       <c r="A252" s="3">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="4" t="s">
@@ -8198,7 +8201,7 @@
     </row>
     <row r="253" spans="1:7" ht="135">
       <c r="A253" s="3">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="4"/>
@@ -8212,15 +8215,15 @@
       </c>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="10" t="s">
+      <c r="A254" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
-      <c r="F254" s="11"/>
-      <c r="G254" s="11"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="12"/>
     </row>
     <row r="255" spans="1:7" ht="30">
       <c r="A255" s="3" t="s">
@@ -8372,7 +8375,7 @@
     </row>
     <row r="263" spans="1:7" ht="60">
       <c r="A263" s="3">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="4" t="s">
@@ -8392,19 +8395,19 @@
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="10" t="s">
+      <c r="A264" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
-      <c r="E264" s="11"/>
-      <c r="F264" s="11"/>
-      <c r="G264" s="11"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
+      <c r="F264" s="12"/>
+      <c r="G264" s="12"/>
     </row>
     <row r="265" spans="1:7" ht="45">
       <c r="A265" s="3">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>563</v>
@@ -8427,7 +8430,7 @@
     </row>
     <row r="266" spans="1:7" ht="75">
       <c r="A266" s="3">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="4"/>
@@ -8444,7 +8447,7 @@
     </row>
     <row r="267" spans="1:7" ht="75">
       <c r="A267" s="3">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="4" t="s">
@@ -8465,7 +8468,7 @@
     </row>
     <row r="268" spans="1:7" ht="60">
       <c r="A268" s="3">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B268" s="3"/>
       <c r="C268" s="4"/>
@@ -8481,15 +8484,15 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="10" t="s">
+      <c r="A269" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12"/>
+      <c r="G269" s="12"/>
     </row>
     <row r="270" spans="1:7" ht="75">
       <c r="A270" s="3" t="s">
@@ -8834,7 +8837,7 @@
     </row>
     <row r="289" spans="1:7" ht="75">
       <c r="A289" s="3">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="4" t="s">
@@ -8876,7 +8879,7 @@
     </row>
     <row r="291" spans="1:7" ht="60">
       <c r="A291" s="3">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="4" t="s">
@@ -8897,7 +8900,7 @@
     </row>
     <row r="292" spans="1:7" ht="120">
       <c r="A292" s="3">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" s="4" t="s">
@@ -8918,7 +8921,7 @@
     </row>
     <row r="293" spans="1:7" ht="45">
       <c r="A293" s="3">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="4" t="s">
@@ -8939,7 +8942,7 @@
     </row>
     <row r="294" spans="1:7" ht="75">
       <c r="A294" s="3">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="4" t="s">
@@ -8960,7 +8963,7 @@
     </row>
     <row r="295" spans="1:7" ht="45">
       <c r="A295" s="3">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="4" t="s">
@@ -8981,7 +8984,7 @@
     </row>
     <row r="296" spans="1:7" ht="45">
       <c r="A296" s="3">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="4" t="s">
@@ -9002,7 +9005,7 @@
     </row>
     <row r="297" spans="1:7" ht="30">
       <c r="A297" s="3">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" s="4" t="s">
@@ -9020,19 +9023,19 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="10" t="s">
+      <c r="A298" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="B298" s="11"/>
-      <c r="C298" s="11"/>
-      <c r="D298" s="11"/>
-      <c r="E298" s="11"/>
-      <c r="F298" s="11"/>
-      <c r="G298" s="11"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
+      <c r="F298" s="12"/>
+      <c r="G298" s="12"/>
     </row>
     <row r="299" spans="1:7" ht="120">
       <c r="A299" s="3">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>660</v>
@@ -9055,7 +9058,7 @@
     </row>
     <row r="300" spans="1:7" ht="150">
       <c r="A300" s="3">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="4"/>
@@ -9070,7 +9073,7 @@
     </row>
     <row r="301" spans="1:7" ht="75">
       <c r="A301" s="3">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="4" t="s">
@@ -9090,19 +9093,19 @@
       </c>
     </row>
     <row r="302" spans="1:7">
-      <c r="A302" s="10" t="s">
+      <c r="A302" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
-      <c r="E302" s="11"/>
-      <c r="F302" s="11"/>
-      <c r="G302" s="11"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
+      <c r="F302" s="12"/>
+      <c r="G302" s="12"/>
     </row>
     <row r="303" spans="1:7" ht="105">
       <c r="A303" s="3">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>668</v>
@@ -9125,7 +9128,7 @@
     </row>
     <row r="304" spans="1:7" ht="60">
       <c r="A304" s="3">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="4"/>
@@ -9164,15 +9167,15 @@
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="10" t="s">
+      <c r="A306" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
-      <c r="D306" s="11"/>
-      <c r="E306" s="11"/>
-      <c r="F306" s="11"/>
-      <c r="G306" s="11"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="12"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
+      <c r="F306" s="12"/>
+      <c r="G306" s="12"/>
     </row>
     <row r="307" spans="1:7" ht="75">
       <c r="A307" s="3" t="s">
@@ -9197,7 +9200,7 @@
     </row>
     <row r="308" spans="1:7" ht="75">
       <c r="A308" s="3">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" s="4" t="s">
@@ -9217,19 +9220,19 @@
       </c>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="10" t="s">
+      <c r="A309" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="B309" s="11"/>
-      <c r="C309" s="11"/>
-      <c r="D309" s="11"/>
-      <c r="E309" s="11"/>
-      <c r="F309" s="11"/>
-      <c r="G309" s="11"/>
+      <c r="B309" s="12"/>
+      <c r="C309" s="12"/>
+      <c r="D309" s="12"/>
+      <c r="E309" s="12"/>
+      <c r="F309" s="12"/>
+      <c r="G309" s="12"/>
     </row>
     <row r="310" spans="1:7" ht="30">
-      <c r="A310" s="8">
-        <v>196</v>
+      <c r="A310" s="10">
+        <v>195</v>
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="8" t="s">
@@ -9249,8 +9252,8 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="165">
-      <c r="A311" s="8">
-        <v>197</v>
+      <c r="A311" s="10">
+        <v>196</v>
       </c>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -9266,8 +9269,8 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="45">
-      <c r="A312" s="8">
-        <v>198</v>
+      <c r="A312" s="10">
+        <v>197</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="8" t="s">
@@ -9287,8 +9290,8 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="75">
-      <c r="A313" s="8">
-        <v>199</v>
+      <c r="A313" s="10">
+        <v>198</v>
       </c>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -9304,8 +9307,8 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="60">
-      <c r="A314" s="8">
-        <v>200</v>
+      <c r="A314" s="10">
+        <v>199</v>
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="8" t="s">
@@ -9325,8 +9328,8 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="60">
-      <c r="A315" s="8">
-        <v>201</v>
+      <c r="A315" s="10">
+        <v>200</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -9342,8 +9345,8 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="45">
-      <c r="A316" s="8">
-        <v>202</v>
+      <c r="A316" s="10">
+        <v>201</v>
       </c>
       <c r="B316" s="8"/>
       <c r="C316" s="8" t="s">
@@ -9363,8 +9366,8 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="45">
-      <c r="A317" s="8">
-        <v>203</v>
+      <c r="A317" s="10">
+        <v>202</v>
       </c>
       <c r="B317" s="8"/>
       <c r="C317" s="8" t="s">
